--- a/Estagio/Cronograma/Cronograma.xlsx
+++ b/Estagio/Cronograma/Cronograma.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Desktop\Curso TPSI\Estagio\Cronograma\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\campo\OneDrive\Documentos\GitHub\Estagio\Estagio\Cronograma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31EFF01-EFCD-479A-8B7E-15BA45F5274E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6A16FA-ADEC-4D87-AEF2-2B20D013F518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sistema de monitoriza" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="24">
   <si>
     <t>Sistema de Monitorização</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>De 2024-02-14 até 2024-06-14</t>
+  </si>
+  <si>
+    <t>Não Iniciado</t>
   </si>
 </sst>
 </file>
@@ -176,7 +179,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -208,8 +211,14 @@
         <fgColor rgb="FFEFEFEF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -232,11 +241,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00B461"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF00B461"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF00B461"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF4A206A"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF4A206A"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF4A206A"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF4A206A"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -273,6 +310,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -281,6 +324,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF4A206A"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -592,29 +640,29 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.58203125" customWidth="1"/>
+    <col min="2" max="2" width="14.625" customWidth="1"/>
     <col min="3" max="3" width="16.75" customWidth="1"/>
-    <col min="4" max="4" width="12.08203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.08203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="42.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="42.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
     </row>
-    <row r="3" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -640,7 +688,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -666,7 +714,7 @@
         <v>45345</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -692,7 +740,7 @@
         <v>45362</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -718,7 +766,7 @@
         <v>45398</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -744,7 +792,7 @@
         <v>45429</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -770,7 +818,7 @@
         <v>45440</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -780,7 +828,7 @@
       <c r="C9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="14" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="6">
@@ -796,7 +844,7 @@
         <v>45453</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -806,8 +854,8 @@
       <c r="C10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>12</v>
+      <c r="D10" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="E10" s="6">
         <v>45434</v>
@@ -822,7 +870,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>21</v>
       </c>
@@ -849,13 +897,13 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>1</v>
       </c>
@@ -881,7 +929,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -907,7 +955,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>21</v>
       </c>
